--- a/data/trans_dic/P20B-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,18; 53,98</t>
+          <t>13,2; 54,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,79; 55,3</t>
+          <t>11,04; 57,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,66; 60,04</t>
+          <t>16,14; 57,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,63; 60,89</t>
+          <t>26,08; 60,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,7; 36,29</t>
+          <t>4,71; 36,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,76; 43,68</t>
+          <t>10,56; 42,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,42</t>
+          <t>0,0; 24,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,12; 21,35</t>
+          <t>3,51; 21,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,49; 39,46</t>
+          <t>11,6; 38,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,04; 41,75</t>
+          <t>16,17; 42,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,05; 32,57</t>
+          <t>11,15; 33,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,92; 37,82</t>
+          <t>17,54; 36,91</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,28; 43,32</t>
+          <t>5,21; 43,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,44</t>
+          <t>0,0; 32,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 41,38</t>
+          <t>4,72; 40,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,37; 53,82</t>
+          <t>14,93; 53,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 30,71</t>
+          <t>3,25; 29,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 28,99</t>
+          <t>3,37; 30,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,95; 45,85</t>
+          <t>10,7; 44,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,55; 46,23</t>
+          <t>15,24; 45,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,57; 29,46</t>
+          <t>6,62; 28,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,14; 24,73</t>
+          <t>4,21; 23,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,8; 37,43</t>
+          <t>11,65; 37,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,71; 43,0</t>
+          <t>18,59; 41,69</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,75; 61,62</t>
+          <t>18,68; 58,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,08; 46,07</t>
+          <t>18,32; 46,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,26; 52,84</t>
+          <t>18,33; 53,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,15; 61,63</t>
+          <t>30,01; 61,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,88; 43,42</t>
+          <t>4,69; 42,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,09; 49,84</t>
+          <t>13,32; 52,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,21; 74,08</t>
+          <t>18,21; 70,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,93; 48,8</t>
+          <t>10,67; 50,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,33; 42,98</t>
+          <t>15,58; 42,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,87; 42,77</t>
+          <t>19,9; 41,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,25; 51,02</t>
+          <t>24,11; 52,06</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,57; 53,29</t>
+          <t>25,55; 53,29</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,84; 34,82</t>
+          <t>12,57; 34,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,13; 43,95</t>
+          <t>20,85; 43,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,98; 53,47</t>
+          <t>27,27; 54,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,48; 35,08</t>
+          <t>14,48; 35,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,5; 29,75</t>
+          <t>10,62; 30,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,59; 29,4</t>
+          <t>11,34; 29,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,99; 31,65</t>
+          <t>11,34; 29,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,96; 26,01</t>
+          <t>9,97; 27,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,83; 28,17</t>
+          <t>14,1; 27,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,33; 31,99</t>
+          <t>18,75; 32,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,33; 37,21</t>
+          <t>20,14; 36,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,38; 28,05</t>
+          <t>14,77; 29,03</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,28; 55,07</t>
+          <t>11,67; 56,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,98; 53,56</t>
+          <t>20,37; 52,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,88; 60,3</t>
+          <t>18,47; 61,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,58; 47,51</t>
+          <t>19,39; 47,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,51; 36,44</t>
+          <t>11,13; 38,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,68; 46,58</t>
+          <t>24,07; 46,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,46; 55,87</t>
+          <t>27,31; 57,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,19; 45,18</t>
+          <t>21,38; 44,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,41; 35,34</t>
+          <t>13,49; 36,2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,97; 44,46</t>
+          <t>25,41; 45,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>27,7; 51,63</t>
+          <t>26,45; 51,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>23,98; 41,86</t>
+          <t>23,94; 41,58</t>
         </is>
       </c>
     </row>
@@ -1429,57 +1430,57 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,05; 75,98</t>
+          <t>11,99; 75,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,46</t>
+          <t>0,0; 47,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 90,47</t>
+          <t>0,0; 89,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,21; 35,06</t>
+          <t>16,27; 35,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,14; 34,19</t>
+          <t>15,01; 35,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,77; 34,48</t>
+          <t>12,49; 34,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,23; 43,22</t>
+          <t>13,32; 43,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,49; 34,68</t>
+          <t>16,25; 35,32</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,08; 34,54</t>
+          <t>16,86; 34,94</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>12,34; 32,75</t>
+          <t>12,18; 32,96</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,16; 41,25</t>
+          <t>13,27; 43,03</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>19,75; 33,9</t>
+          <t>18,86; 34,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23,64; 36,92</t>
+          <t>23,64; 37,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,65; 42,15</t>
+          <t>26,16; 40,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>26,66; 40,24</t>
+          <t>26,87; 40,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,55; 25,58</t>
+          <t>15,68; 25,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,1; 29,65</t>
+          <t>20,23; 30,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,59; 30,26</t>
+          <t>19,18; 29,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,86; 28,18</t>
+          <t>17,96; 29,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,4; 26,81</t>
+          <t>18,3; 26,69</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>22,97; 30,53</t>
+          <t>23,04; 30,85</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>23,57; 32,47</t>
+          <t>23,44; 32,62</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>23,51; 31,94</t>
+          <t>23,72; 32,22</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que estuvo en lista de espera por ingreso hospitalario</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7325</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9517</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>13357</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2868</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8539</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2482</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3208</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10193</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>14615</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11999</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>16565</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3128; 12862</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2340; 12240</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4230; 15025</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8134; 18802</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>900; 6901</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3453; 14044</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7982</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1105; 6612</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4967; 16696</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8715; 22730</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6538; 19772</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>10992; 23131</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2804</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1722</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4005</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6881</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4061</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4396</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8366</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7978</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6864</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6118</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12371</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>14859</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>798; 6692</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5431</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>969; 8358</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3243; 11708</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>952; 8645</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1122; 10318</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3567; 14714</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4391; 13159</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2951; 12637</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2114; 11577</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6279; 20097</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9392; 21062</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7509</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>14822</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10871</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>14387</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2804</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6337</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6909</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4372</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>10313</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>21160</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>17780</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>18758</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3708; 11559</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8799; 22481</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5849; 16957</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9552; 19564</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>776; 7026</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3055; 11935</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2913; 11278</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1681; 7963</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5671; 15592</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14124; 29693</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>11550; 24937</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>12154; 25355</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>12139</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22759</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>21122</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>14322</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11820</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>15054</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>14591</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8894</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>23959</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>37813</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>35713</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>23216</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>7085; 19600</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>15359; 31917</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14436; 28635</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>8690; 21231</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6593; 18990</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9004; 23713</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>8484; 22405</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5207; 14237</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>16696; 32844</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>28702; 50219</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>25735; 47162</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>16574; 32589</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4505</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>13344</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>8148</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12809</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8886</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>27877</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>18793</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>13503</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>13391</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>41221</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>26941</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>26312</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1768; 8526</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7761; 19973</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4038; 13412</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7698; 18817</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4560; 15679</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>19025; 36806</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12760; 26716</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8898; 18459</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>7568; 20309</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>29767; 53572</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>18141; 35282</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>19467; 33812</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3031</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1088</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>19719</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>20060</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>14507</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>9931</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>20601</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>23091</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>15595</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>10452</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3619</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>944; 5973</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4274</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2567</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>13075; 28449</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>12757; 29864</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>8270; 23169</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>5403; 17774</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>13645; 29662</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>15650; 32442</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>9169; 24809</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>5766; 18695</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>35163</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>61754</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>54751</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>62277</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>50158</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>82263</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>65647</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>47886</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>85321</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>144017</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>120398</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>110162</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>25274; 45688</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>48649; 76947</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>42502; 66360</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>50338; 75315</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>38941; 62932</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>67250; 100738</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>51703; 79847</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>37799; 61642</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>69951; 102057</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>123981; 166002</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>101246; 140920</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>94374; 128147</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P20B-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
